--- a/P1 Rates.xlsx
+++ b/P1 Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ADMU\M AMF\SEM 2\271.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B2304-6842-4AF4-9E33-6F84C996B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB433B-D495-48F0-8CD9-B01A7D33B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{FA811EE2-E010-EF48-A3A9-EBD468959101}"/>
+    <workbookView xWindow="4470" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{FA811EE2-E010-EF48-A3A9-EBD468959101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,7 +118,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +437,7 @@
   <dimension ref="A1:K1853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
